--- a/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
+++ b/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Prod" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="PurchaseOrder" sheetId="8" r:id="rId8"/>
     <sheet name="Invoice" sheetId="9" r:id="rId9"/>
     <sheet name="Quotes" sheetId="10" r:id="rId10"/>
+    <sheet name="SalesOrder" sheetId="11" r:id="rId11"/>
+    <sheet name="Leads" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="258">
   <si>
     <t>Product_Id</t>
   </si>
@@ -175,9 +177,84 @@
     <t>Billing_address</t>
   </si>
   <si>
+    <t>Org_125</t>
+  </si>
+  <si>
+    <t>www.org_125.com</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>8524163480</t>
+  </si>
+  <si>
+    <t>org_125@mail.com</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Bangaluru</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>sham</t>
+  </si>
+  <si>
     <t>Org_123</t>
   </si>
   <si>
+    <t>sham@mail.com</t>
+  </si>
+  <si>
+    <t>756641332</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>ram@mail.com</t>
+  </si>
+  <si>
+    <t>956641333</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>suresh@mail.com</t>
+  </si>
+  <si>
+    <t>756241334</t>
+  </si>
+  <si>
     <t>www.org_123.com</t>
   </si>
   <si>
@@ -187,9 +264,6 @@
     <t>Analyst</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>8524163478</t>
   </si>
   <si>
@@ -199,60 +273,9 @@
     <t>1000</t>
   </si>
   <si>
-    <t>Bangaluru</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>MobileNo</t>
-  </si>
-  <si>
-    <t>F111</t>
-  </si>
-  <si>
-    <t>sham</t>
-  </si>
-  <si>
-    <t>sham@mail.com</t>
-  </si>
-  <si>
-    <t>756641332</t>
-  </si>
-  <si>
-    <t>F112</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
     <t>Org_124</t>
   </si>
   <si>
-    <t>ram@mail.com</t>
-  </si>
-  <si>
-    <t>956641333</t>
-  </si>
-  <si>
-    <t>F113</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Org_125</t>
-  </si>
-  <si>
-    <t>suresh@mail.com</t>
-  </si>
-  <si>
-    <t>756241334</t>
-  </si>
-  <si>
     <t>www.org_124.com</t>
   </si>
   <si>
@@ -274,27 +297,6 @@
     <t>20000</t>
   </si>
   <si>
-    <t>www.org_125.com</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>8524163480</t>
-  </si>
-  <si>
-    <t>org_125@mail.com</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>Org_126</t>
   </si>
   <si>
@@ -691,37 +693,112 @@
     <t>status</t>
   </si>
   <si>
+    <t>billinhAddress</t>
+  </si>
+  <si>
+    <t>shippingAddress</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
     <t>sub01</t>
   </si>
   <si>
     <t>Created</t>
   </si>
   <si>
+    <t>billingAdrs01</t>
+  </si>
+  <si>
+    <t>shippingAdrs01</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
     <t>sub02</t>
   </si>
   <si>
     <t>Approved</t>
   </si>
   <si>
+    <t>billingAdrs02</t>
+  </si>
+  <si>
+    <t>shippingAdrs02</t>
+  </si>
+  <si>
     <t>contactName</t>
   </si>
   <si>
     <t>orgName</t>
   </si>
   <si>
-    <t>billinhAddress</t>
-  </si>
-  <si>
-    <t>shippingAddress</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
     <t>subject01</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Qspider</t>
+  </si>
+  <si>
+    <t>BillinhAddress01</t>
+  </si>
+  <si>
+    <t>ShippingAddress01</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>QOt01</t>
+  </si>
+  <si>
+    <t>customerno</t>
+  </si>
+  <si>
+    <t>salesOrder01</t>
+  </si>
+  <si>
+    <t>cust1001</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>leadsource</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>annualrevenue</t>
+  </si>
+  <si>
+    <t>noofemployees</t>
+  </si>
+  <si>
+    <t>FN01</t>
+  </si>
+  <si>
+    <t>LN01</t>
+  </si>
+  <si>
+    <t>cmp01</t>
+  </si>
+  <si>
+    <t>550000</t>
   </si>
 </sst>
 </file>
@@ -729,10 +806,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -767,7 +844,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,13 +895,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -828,6 +905,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,44 +963,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -896,7 +973,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,43 +1093,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,49 +1123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,61 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,6 +1164,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1118,32 +1204,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1181,9 +1241,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,15 +1269,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,130 +1287,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1846,16 +1923,16 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1863,19 +1940,188 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="10.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
         <v>228</v>
       </c>
+      <c r="F2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +2136,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J4"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1944,35 +2190,35 @@
       <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="www.org_123.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="org_123@mail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="www.org_125.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="org_125@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1985,7 +2231,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1999,10 +2245,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
@@ -2011,52 +2257,52 @@
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>74</v>
@@ -2079,76 +2325,108 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:J19"/>
+  <dimension ref="A5:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2168,7 +2446,7 @@
         <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -2180,7 +2458,7 @@
         <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2200,7 +2478,7 @@
         <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>103</v>
@@ -2212,7 +2490,7 @@
         <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2244,7 +2522,7 @@
         <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2261,7 +2539,7 @@
         <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>110</v>
@@ -2273,10 +2551,10 @@
         <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2308,7 +2586,7 @@
         <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2340,7 +2618,7 @@
         <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2351,7 +2629,7 @@
         <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>136</v>
@@ -2368,7 +2646,7 @@
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>140</v>
@@ -2385,7 +2663,7 @@
         <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>144</v>
@@ -2402,7 +2680,7 @@
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>148</v>
@@ -2419,7 +2697,7 @@
         <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>152</v>
@@ -2447,10 +2725,12 @@
     <hyperlink ref="D17" r:id="rId5" display="smith@mail.com" tooltip="mailto:smith@mail.com"/>
     <hyperlink ref="D18" r:id="rId6" display="miller@mail.com" tooltip="mailto:miller@mail.com"/>
     <hyperlink ref="D19" r:id="rId7" display="anthony@mail.com" tooltip="mailto:anthony@mail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="www.org_125.com"/>
+    <hyperlink ref="H7" r:id="rId2" display="org_125@mail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="www.org_123.com"/>
+    <hyperlink ref="H5" r:id="rId2" display="org_123@mail.com"/>
     <hyperlink ref="B6" r:id="rId1" display="www.org_124.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="www.org_125.com"/>
     <hyperlink ref="H6" r:id="rId2" display="org_124@mail.com"/>
-    <hyperlink ref="H7" r:id="rId2" display="org_125@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2665,7 +2945,7 @@
         <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>201</v>
@@ -2685,7 +2965,7 @@
         <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>206</v>
@@ -2774,18 +3054,21 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="13.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>220</v>
       </c>
@@ -2795,27 +3078,63 @@
       <c r="C1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2830,14 +3149,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="15.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2845,27 +3166,45 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
+++ b/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prod" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="261">
   <si>
     <t>Product_Id</t>
   </si>
@@ -231,6 +231,300 @@
     <t>756641332</t>
   </si>
   <si>
+    <t>www.org_123.com</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>8524163478</t>
+  </si>
+  <si>
+    <t>org_123@mail.com</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Org_124</t>
+  </si>
+  <si>
+    <t>www.org_124.com</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>9626263479</t>
+  </si>
+  <si>
+    <t>org_124@mail.com</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Org_126</t>
+  </si>
+  <si>
+    <t>www.org_126.com</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>8524163751</t>
+  </si>
+  <si>
+    <t>org_126@mail.com</t>
+  </si>
+  <si>
+    <t>18500</t>
+  </si>
+  <si>
+    <t>Org_127</t>
+  </si>
+  <si>
+    <t>www.org_127.com</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>8524163482</t>
+  </si>
+  <si>
+    <t>org_127@mail.com</t>
+  </si>
+  <si>
+    <t>65400</t>
+  </si>
+  <si>
+    <t>Org_128</t>
+  </si>
+  <si>
+    <t>www.org_128.com</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Reseller</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>7324163483</t>
+  </si>
+  <si>
+    <t>org_128@mail.com</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>Org_129</t>
+  </si>
+  <si>
+    <t>www.org_129.com</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>9524163484</t>
+  </si>
+  <si>
+    <t>org_129@mail.com</t>
+  </si>
+  <si>
+    <t>Org_130</t>
+  </si>
+  <si>
+    <t>www.org_130.com</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>8324163485</t>
+  </si>
+  <si>
+    <t>org_130@mail.com</t>
+  </si>
+  <si>
+    <t>65420</t>
+  </si>
+  <si>
+    <t>Org_131</t>
+  </si>
+  <si>
+    <t>www.org_131.com</t>
+  </si>
+  <si>
+    <t>2558</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>7624163486</t>
+  </si>
+  <si>
+    <t>org_131@mail.com</t>
+  </si>
+  <si>
+    <t>5800000</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
+    <t>alexa@mail.com</t>
+  </si>
+  <si>
+    <t>756641752</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>john@mail.com</t>
+  </si>
+  <si>
+    <t>956638936</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>smith@mail.com</t>
+  </si>
+  <si>
+    <t>756641737</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>miller@mail.com</t>
+  </si>
+  <si>
+    <t>796641338</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>anthony@mail.com</t>
+  </si>
+  <si>
+    <t>926641339</t>
+  </si>
+  <si>
+    <t>vendor02</t>
+  </si>
+  <si>
+    <t>vendor02@mil.com</t>
+  </si>
+  <si>
+    <t>5998741</t>
+  </si>
+  <si>
+    <t>www.vendor02.com</t>
+  </si>
+  <si>
+    <t>street02</t>
+  </si>
+  <si>
+    <t>city02</t>
+  </si>
+  <si>
+    <t>postalcode02</t>
+  </si>
+  <si>
+    <t>pobox02</t>
+  </si>
+  <si>
+    <t>state02</t>
+  </si>
+  <si>
+    <t>country02</t>
+  </si>
+  <si>
+    <t>vendor03</t>
+  </si>
+  <si>
+    <t>vendor03@mil.com</t>
+  </si>
+  <si>
+    <t>98574</t>
+  </si>
+  <si>
+    <t>www.vendor03.com</t>
+  </si>
+  <si>
+    <t>street03</t>
+  </si>
+  <si>
+    <t>city03</t>
+  </si>
+  <si>
+    <t>postalcode03</t>
+  </si>
+  <si>
+    <t>pobox03</t>
+  </si>
+  <si>
+    <t>state03</t>
+  </si>
+  <si>
+    <t>country03</t>
+  </si>
+  <si>
     <t>F112</t>
   </si>
   <si>
@@ -255,240 +549,6 @@
     <t>756241334</t>
   </si>
   <si>
-    <t>www.org_123.com</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>8524163478</t>
-  </si>
-  <si>
-    <t>org_123@mail.com</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Org_124</t>
-  </si>
-  <si>
-    <t>www.org_124.com</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>9626263479</t>
-  </si>
-  <si>
-    <t>org_124@mail.com</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>Org_126</t>
-  </si>
-  <si>
-    <t>www.org_126.com</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Prospect</t>
-  </si>
-  <si>
-    <t>8524163751</t>
-  </si>
-  <si>
-    <t>org_126@mail.com</t>
-  </si>
-  <si>
-    <t>18500</t>
-  </si>
-  <si>
-    <t>Org_127</t>
-  </si>
-  <si>
-    <t>www.org_127.com</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>8524163482</t>
-  </si>
-  <si>
-    <t>org_127@mail.com</t>
-  </si>
-  <si>
-    <t>65400</t>
-  </si>
-  <si>
-    <t>Org_128</t>
-  </si>
-  <si>
-    <t>www.org_128.com</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Reseller</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>7324163483</t>
-  </si>
-  <si>
-    <t>org_128@mail.com</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>Org_129</t>
-  </si>
-  <si>
-    <t>www.org_129.com</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>9524163484</t>
-  </si>
-  <si>
-    <t>org_129@mail.com</t>
-  </si>
-  <si>
-    <t>Org_130</t>
-  </si>
-  <si>
-    <t>www.org_130.com</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Investor</t>
-  </si>
-  <si>
-    <t>8324163485</t>
-  </si>
-  <si>
-    <t>org_130@mail.com</t>
-  </si>
-  <si>
-    <t>65420</t>
-  </si>
-  <si>
-    <t>Org_131</t>
-  </si>
-  <si>
-    <t>www.org_131.com</t>
-  </si>
-  <si>
-    <t>2558</t>
-  </si>
-  <si>
-    <t>Hospitality</t>
-  </si>
-  <si>
-    <t>7624163486</t>
-  </si>
-  <si>
-    <t>org_131@mail.com</t>
-  </si>
-  <si>
-    <t>5800000</t>
-  </si>
-  <si>
-    <t>F114</t>
-  </si>
-  <si>
-    <t>Alexa</t>
-  </si>
-  <si>
-    <t>alexa@mail.com</t>
-  </si>
-  <si>
-    <t>756641752</t>
-  </si>
-  <si>
-    <t>F115</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>john@mail.com</t>
-  </si>
-  <si>
-    <t>956638936</t>
-  </si>
-  <si>
-    <t>F116</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>smith@mail.com</t>
-  </si>
-  <si>
-    <t>756641737</t>
-  </si>
-  <si>
-    <t>F117</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>miller@mail.com</t>
-  </si>
-  <si>
-    <t>796641338</t>
-  </si>
-  <si>
-    <t>F118</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>anthony@mail.com</t>
-  </si>
-  <si>
-    <t>926641339</t>
-  </si>
-  <si>
     <t>vendorName</t>
   </si>
   <si>
@@ -549,66 +609,6 @@
     <t>country01</t>
   </si>
   <si>
-    <t>vendor02</t>
-  </si>
-  <si>
-    <t>vendor02@mil.com</t>
-  </si>
-  <si>
-    <t>5998741</t>
-  </si>
-  <si>
-    <t>www.vendor02.com</t>
-  </si>
-  <si>
-    <t>street02</t>
-  </si>
-  <si>
-    <t>city02</t>
-  </si>
-  <si>
-    <t>postalcode02</t>
-  </si>
-  <si>
-    <t>pobox02</t>
-  </si>
-  <si>
-    <t>state02</t>
-  </si>
-  <si>
-    <t>country02</t>
-  </si>
-  <si>
-    <t>vendor03</t>
-  </si>
-  <si>
-    <t>vendor03@mil.com</t>
-  </si>
-  <si>
-    <t>98574</t>
-  </si>
-  <si>
-    <t>www.vendor03.com</t>
-  </si>
-  <si>
-    <t>street03</t>
-  </si>
-  <si>
-    <t>city03</t>
-  </si>
-  <si>
-    <t>postalcode03</t>
-  </si>
-  <si>
-    <t>pobox03</t>
-  </si>
-  <si>
-    <t>state03</t>
-  </si>
-  <si>
-    <t>country03</t>
-  </si>
-  <si>
     <t>opprtName</t>
   </si>
   <si>
@@ -708,6 +708,9 @@
     <t>sub01</t>
   </si>
   <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
     <t>Created</t>
   </si>
   <si>
@@ -717,46 +720,52 @@
     <t>shippingAdrs01</t>
   </si>
   <si>
+    <t>Vtiger Single User Pack</t>
+  </si>
+  <si>
+    <t>sub02</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>billingAdrs02</t>
+  </si>
+  <si>
+    <t>shippingAdrs02</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>subject01</t>
+  </si>
+  <si>
+    <t>Qspider</t>
+  </si>
+  <si>
+    <t>BillinhAddress01</t>
+  </si>
+  <si>
+    <t>ShippingAddress01</t>
+  </si>
+  <si>
+    <t>QOt01</t>
+  </si>
+  <si>
     <t>Laptop</t>
   </si>
   <si>
-    <t>sub02</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>billingAdrs02</t>
-  </si>
-  <si>
-    <t>shippingAdrs02</t>
-  </si>
-  <si>
-    <t>contactName</t>
-  </si>
-  <si>
-    <t>orgName</t>
-  </si>
-  <si>
-    <t>subject01</t>
-  </si>
-  <si>
-    <t>Vikas</t>
-  </si>
-  <si>
-    <t>Qspider</t>
-  </si>
-  <si>
-    <t>BillinhAddress01</t>
-  </si>
-  <si>
-    <t>ShippingAddress01</t>
-  </si>
-  <si>
-    <t>Processor</t>
-  </si>
-  <si>
-    <t>QOt01</t>
+    <t>s</t>
   </si>
   <si>
     <t>customerno</t>
@@ -806,10 +815,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -837,7 +846,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,7 +867,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,22 +882,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -903,10 +904,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,31 +943,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,7 +967,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,7 +982,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,13 +1018,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,37 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,25 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,55 +1150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,6 +1176,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1176,11 +1200,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,7 +1219,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,31 +1240,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,35 +1273,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,137 +1296,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -1425,6 +1437,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,13 +1790,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -1789,13 +1804,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -1803,13 +1818,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -1817,13 +1832,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
@@ -1831,13 +1846,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
@@ -1845,13 +1860,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
@@ -1859,13 +1874,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
@@ -1873,13 +1888,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
@@ -1887,13 +1902,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
@@ -1901,13 +1916,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
@@ -1923,13 +1938,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
@@ -1940,7 +1955,7 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>222</v>
@@ -1957,22 +1972,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2028,10 @@
         <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
         <v>222</v>
@@ -2028,27 +2048,27 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2080,36 +2100,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
         <v>207</v>
@@ -2117,10 +2137,10 @@
       <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2135,7 +2155,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
@@ -2187,7 +2207,7 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
@@ -2205,7 +2225,7 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I2" t="s">
@@ -2228,13 +2248,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -2270,52 +2290,16 @@
       <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="sham@mail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="ram@mail.com" tooltip="mailto:ram@mail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="suresh@mail.com" tooltip="mailto:suresh@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2325,10 +2309,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:J19"/>
+  <dimension ref="A5:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2337,29 +2321,29 @@
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>76</v>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
         <v>59</v>
@@ -2367,31 +2351,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
         <v>59</v>
@@ -2401,7 +2385,7 @@
       <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
@@ -2419,7 +2403,7 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
@@ -2431,31 +2415,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
         <v>59</v>
@@ -2463,31 +2447,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -2495,31 +2479,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
@@ -2527,31 +2511,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
         <v>110</v>
       </c>
-      <c r="G11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>119</v>
+      <c r="H11" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
         <v>59</v>
@@ -2559,31 +2543,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
         <v>59</v>
@@ -2591,31 +2575,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
         <v>59</v>
@@ -2623,87 +2607,185 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>136</v>
+      <c r="D15" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>140</v>
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>144</v>
+      <c r="D17" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>148</v>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
         <v>150</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F22" t="s">
         <v>151</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="G22" t="s">
         <v>152</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H22" t="s">
         <v>153</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2731,6 +2813,12 @@
     <hyperlink ref="H5" r:id="rId2" display="org_123@mail.com"/>
     <hyperlink ref="B6" r:id="rId1" display="www.org_124.com"/>
     <hyperlink ref="H6" r:id="rId2" display="org_124@mail.com"/>
+    <hyperlink ref="B22" r:id="rId8" display="vendor02@mil.com"/>
+    <hyperlink ref="B23" r:id="rId8" display="vendor03@mil.com"/>
+    <hyperlink ref="D22" r:id="rId9" display="www.vendor02.com"/>
+    <hyperlink ref="D23" r:id="rId9" display="www.vendor03.com"/>
+    <hyperlink ref="D26" r:id="rId10" display="ram@mail.com" tooltip="mailto:ram@mail.com"/>
+    <hyperlink ref="D27" r:id="rId11" display="suresh@mail.com" tooltip="mailto:suresh@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2740,13 +2828,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
@@ -2761,140 +2849,72 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J4" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="vendor01@mil.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="vendor02@mil.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="vendor03@mil.com"/>
     <hyperlink ref="D2" r:id="rId2" display="www.vendor01.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="www.vendor02.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="www.vendor03.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2907,7 +2927,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2956,7 +2976,7 @@
       <c r="E2" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2965,7 +2985,7 @@
         <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>206</v>
@@ -2976,7 +2996,7 @@
       <c r="E3" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3011,7 +3031,7 @@
         <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
         <v>212</v>
@@ -3039,7 +3059,7 @@
         <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>219</v>
@@ -3056,8 +3076,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -3065,7 +3085,7 @@
     <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="13.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="6" max="6" width="21.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3073,7 +3093,7 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
         <v>221</v>
@@ -3096,44 +3116,44 @@
         <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3166,10 +3186,10 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
         <v>222</v>
@@ -3186,24 +3206,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" t="s">
         <v>237</v>
       </c>
-      <c r="B2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
+++ b/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Prod" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="260">
   <si>
     <t>Product_Id</t>
   </si>
@@ -549,6 +549,15 @@
     <t>756241334</t>
   </si>
   <si>
+    <t>product02</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>300-Sales-Software</t>
+  </si>
+  <si>
     <t>vendorName</t>
   </si>
   <si>
@@ -678,15 +687,6 @@
     <t>301-Sales-Hardware</t>
   </si>
   <si>
-    <t>product02</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>300-Sales-Software</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -763,9 +763,6 @@
   </si>
   <si>
     <t>Laptop</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>customerno</t>
@@ -815,10 +812,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -846,7 +843,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,6 +856,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -867,7 +865,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,17 +880,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,8 +894,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -919,22 +932,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -944,14 +941,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,7 +964,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +991,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,19 +1069,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,13 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,19 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,13 +1123,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,67 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,30 +1170,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1239,6 +1212,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1253,40 +1270,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,130 +1293,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1938,13 +1935,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
@@ -1988,11 +1985,6 @@
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7">
-      <c r="G3" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2020,7 @@
         <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>239</v>
@@ -2048,13 +2040,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -2100,45 +2092,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
         <v>250</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>255</v>
-      </c>
-      <c r="G1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
         <v>257</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>258</v>
       </c>
-      <c r="C2" t="s">
-        <v>259</v>
-      </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>37</v>
@@ -2155,7 +2147,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
@@ -2309,10 +2301,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:J27"/>
+  <dimension ref="A5:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2786,6 +2778,20 @@
       </c>
       <c r="E27" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2849,66 +2855,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2942,62 +2948,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3009,13 +3015,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
@@ -3025,43 +3031,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3093,7 +3085,7 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>221</v>

--- a/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
+++ b/vTigerMaven/src/main/java/com/vTiger/commonData/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Prod" sheetId="1" r:id="rId1"/>
@@ -558,6 +558,21 @@
     <t>300-Sales-Software</t>
   </si>
   <si>
+    <t>opprt02</t>
+  </si>
+  <si>
+    <t>New Business</t>
+  </si>
+  <si>
+    <t>Existing Customer</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>vendorName</t>
   </si>
   <si>
@@ -649,21 +664,6 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>opprt02</t>
-  </si>
-  <si>
-    <t>New Business</t>
-  </si>
-  <si>
-    <t>Existing Customer</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>46</t>
   </si>
   <si>
     <t>productName</t>
@@ -1937,7 +1937,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2075,7 +2075,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2124,7 +2124,7 @@
         <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -2301,10 +2301,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:J32"/>
+  <dimension ref="A5:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2792,6 +2792,26 @@
       </c>
       <c r="D32" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2855,66 +2875,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2930,13 +2950,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
@@ -2948,61 +2968,41 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
         <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
         <v>215</v>
@@ -3085,7 +3085,7 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
         <v>221</v>
